--- a/biology/Histoire de la zoologie et de la botanique/Carl_Fredrik_Adler/Carl_Fredrik_Adler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Fredrik_Adler/Carl_Fredrik_Adler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Fredrik Adler, médecin et naturaliste suédois, né le 30 septembre 1720 et décédé au large de Java le 10 juin 1761[1]. Il fait partie des apôtres de Linné[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Fredrik Adler, médecin et naturaliste suédois, né le 30 septembre 1720 et décédé au large de Java le 10 juin 1761. Il fait partie des apôtres de Linné.
 </t>
         </is>
       </c>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Carl Fredrik Adler, fils du soldat Niclas Adler et de Brita Geijer, est né le 30 septembre 1720 à Stockholm[1]. Il entre à l'Université d'Uppsala le 15 février 1742 et y suit les enseignements de médecine de Carl von Linné (1707-1778) et de Nils Rosén (1707-1773)[1]. Il soutient une thèse dirigée par Linné sur la bioluminescence et intitulée Noctiluca Marina, le 9 juin 1752[1].
-Expéditions avec la Compagnie suédoise des Indes orientales
-Entre 1748 et 1761, Adler participe comme chirurgien de bord à quatre voyages de la Compagnie suédoise des Indes orientales et en rapporte des échantillons de faune et de flore[1]. En 1748-1749, alors qu'il est encore étudiant, il se rend à Canton à bord du Hoppet[1]. De 1753-1756, il va à Surate et à Canton à bord du Prins Carl[1]. En 1759-1760, il retourne à Canton à bord du Prins Friedric Adolph[1]. L'année suivante, il remonte à bord du même navire pour la même destination, mais meurt au large de Java[1], le 10 juin 1761. Ses collections d'histoire naturelle de Java sont détruites par des insectes[2].
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Fredrik Adler, fils du soldat Niclas Adler et de Brita Geijer, est né le 30 septembre 1720 à Stockholm. Il entre à l'Université d'Uppsala le 15 février 1742 et y suit les enseignements de médecine de Carl von Linné (1707-1778) et de Nils Rosén (1707-1773). Il soutient une thèse dirigée par Linné sur la bioluminescence et intitulée Noctiluca Marina, le 9 juin 1752.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carl_Fredrik_Adler</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Fredrik_Adler</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Expéditions avec la Compagnie suédoise des Indes orientales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1748 et 1761, Adler participe comme chirurgien de bord à quatre voyages de la Compagnie suédoise des Indes orientales et en rapporte des échantillons de faune et de flore. En 1748-1749, alors qu'il est encore étudiant, il se rend à Canton à bord du Hoppet. De 1753-1756, il va à Surate et à Canton à bord du Prins Carl. En 1759-1760, il retourne à Canton à bord du Prins Friedric Adolph. L'année suivante, il remonte à bord du même navire pour la même destination, mais meurt au large de Java, le 10 juin 1761. Ses collections d'histoire naturelle de Java sont détruites par des insectes.
 </t>
         </is>
       </c>
